--- a/BackTest/2020-01-26 BackTest APIS.xlsx
+++ b/BackTest/2020-01-26 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,6 +795,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -824,6 +839,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -867,6 +883,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,6 +919,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -937,6 +955,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -972,6 +991,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1007,6 +1027,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,6 +1063,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1077,6 +1099,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1112,6 +1135,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1147,6 +1171,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1182,6 +1207,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1217,6 +1243,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1252,6 +1279,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1287,6 +1315,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,6 +1351,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1357,6 +1387,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,6 +1423,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1427,6 +1459,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1462,6 +1495,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1497,6 +1531,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1532,6 +1567,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1567,6 +1603,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1594,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1602,6 +1639,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1637,6 +1675,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1672,6 +1711,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1707,6 +1747,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1742,6 +1783,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1777,6 +1819,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1812,6 +1855,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1847,6 +1891,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1882,6 +1927,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1917,6 +1963,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1952,6 +1999,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1987,6 +2035,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2022,6 +2071,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2057,6 +2107,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2092,6 +2143,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2127,6 +2179,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2162,6 +2215,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2197,6 +2251,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2232,6 +2287,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2267,6 +2323,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2302,6 +2359,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2337,6 +2395,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2372,6 +2431,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2407,6 +2467,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2442,6 +2503,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2477,6 +2539,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2512,6 +2575,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2547,6 +2611,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2582,6 +2647,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2617,6 +2683,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2652,6 +2719,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2687,6 +2755,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2722,6 +2791,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2757,6 +2827,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2792,6 +2863,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2827,6 +2899,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2862,6 +2935,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2897,6 +2971,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2932,6 +3007,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2967,6 +3043,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3002,6 +3079,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3037,6 +3115,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3072,6 +3151,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3107,6 +3187,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3142,6 +3223,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3177,6 +3259,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3212,6 +3295,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3247,6 +3331,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3282,6 +3367,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3317,6 +3403,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3352,6 +3439,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3391,6 +3479,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3432,6 +3521,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3473,6 +3563,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3508,6 +3599,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3543,6 +3635,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3582,6 +3675,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3623,6 +3717,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3664,6 +3759,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3703,6 +3799,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3744,6 +3841,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3785,6 +3883,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3824,6 +3923,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3867,6 +3967,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3908,6 +4009,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3943,6 +4045,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3978,6 +4081,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4013,6 +4117,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4048,6 +4153,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4087,6 +4193,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,6 +4235,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4169,6 +4277,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4204,6 +4313,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4239,6 +4349,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,6 +4385,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4309,6 +4421,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,6 +4457,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4379,6 +4493,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4414,6 +4529,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4449,6 +4565,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4484,6 +4601,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4519,6 +4637,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4554,6 +4673,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4589,6 +4709,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4624,6 +4745,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4659,6 +4781,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4694,6 +4817,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4729,6 +4853,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4756,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4764,6 +4889,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4799,6 +4925,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4826,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4834,6 +4961,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4869,6 +4997,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest APIS.xlsx
+++ b/BackTest/2020-01-26 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5605</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5605</v>
       </c>
       <c r="F2" t="n">
-        <v>8761.722900000001</v>
+        <v>1054815.4822</v>
       </c>
       <c r="G2" t="n">
-        <v>-22626579.5113</v>
+        <v>-24312140.6573</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5623</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5623</v>
       </c>
       <c r="F3" t="n">
-        <v>1384336.6103</v>
+        <v>2384464.4748</v>
       </c>
       <c r="G3" t="n">
-        <v>-22626579.5113</v>
+        <v>-21927676.1825</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5646</v>
       </c>
       <c r="F4" t="n">
-        <v>1064195.0408</v>
+        <v>2379072.4762</v>
       </c>
       <c r="G4" t="n">
-        <v>-22626579.5113</v>
+        <v>-19548603.7063</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5624</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5624</v>
       </c>
       <c r="F5" t="n">
-        <v>1509883.9775</v>
+        <v>956946.3728</v>
       </c>
       <c r="G5" t="n">
-        <v>-22626579.5113</v>
+        <v>-20505550.0791</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5618</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5618</v>
       </c>
       <c r="F6" t="n">
-        <v>3009136.4966</v>
+        <v>2229712.2721</v>
       </c>
       <c r="G6" t="n">
-        <v>-22626579.5113</v>
+        <v>-22735262.3512</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,31 +618,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5615</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5615</v>
       </c>
       <c r="F7" t="n">
-        <v>964359.4191000001</v>
+        <v>751004.6777</v>
       </c>
       <c r="G7" t="n">
-        <v>-22626579.5113</v>
+        <v>-23486267.0289</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5618</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -654,22 +658,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5671</v>
+        <v>0.5635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5671</v>
+        <v>0.5635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5671</v>
+        <v>0.5635</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5671</v>
+        <v>0.5635</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7261999999999</v>
+        <v>1500196.339</v>
       </c>
       <c r="G8" t="n">
-        <v>-22625671.7851</v>
+        <v>-21986070.6899</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +700,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5651</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5651</v>
       </c>
       <c r="F9" t="n">
-        <v>1419074.7226</v>
+        <v>2689766.5841</v>
       </c>
       <c r="G9" t="n">
-        <v>-24044746.5077</v>
+        <v>-19296304.1058</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +724,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +742,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5671</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5673</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5673</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5671</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>2278120.353269769</v>
+        <v>1775573.3323</v>
       </c>
       <c r="G10" t="n">
-        <v>-21766626.15443023</v>
+        <v>-21071877.4381</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,35 +778,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5675</v>
+        <v>0.5607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5675</v>
+        <v>0.5607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5675</v>
+        <v>0.5607</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5675</v>
+        <v>0.5607</v>
       </c>
       <c r="F11" t="n">
-        <v>789854.2574</v>
+        <v>2547365.5652</v>
       </c>
       <c r="G11" t="n">
-        <v>-20976771.89703023</v>
+        <v>-18524511.8729</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.5673</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.5673</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -802,40 +814,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5678</v>
+        <v>0.5588</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5678</v>
+        <v>0.5588</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5678</v>
+        <v>0.5588</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5678</v>
+        <v>0.5588</v>
       </c>
       <c r="F12" t="n">
-        <v>909.1984</v>
+        <v>726296.8811</v>
       </c>
       <c r="G12" t="n">
-        <v>-20975862.69863023</v>
+        <v>-19250808.754</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.5673</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -846,40 +850,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5678</v>
+        <v>0.5611</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5678</v>
+        <v>0.5611</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5678</v>
+        <v>0.5611</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5678</v>
+        <v>0.5611</v>
       </c>
       <c r="F13" t="n">
-        <v>366320.7976</v>
+        <v>2569697.6688</v>
       </c>
       <c r="G13" t="n">
-        <v>-20975862.69863023</v>
+        <v>-16681111.0852</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.5678</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5673</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -890,22 +886,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5704</v>
+        <v>0.5645</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5784</v>
+        <v>0.5645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5784</v>
+        <v>0.5645</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5704</v>
+        <v>0.5645</v>
       </c>
       <c r="F14" t="n">
-        <v>877890.6749</v>
+        <v>1047201.3535</v>
       </c>
       <c r="G14" t="n">
-        <v>-20097972.02373023</v>
+        <v>-15633909.7317</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -926,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5785</v>
+        <v>0.5607</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5785</v>
+        <v>0.5607</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5785</v>
+        <v>0.5607</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5785</v>
+        <v>0.5607</v>
       </c>
       <c r="F15" t="n">
-        <v>893.4543</v>
+        <v>904323.895</v>
       </c>
       <c r="G15" t="n">
-        <v>-20097078.56943023</v>
+        <v>-16538233.6267</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -962,22 +958,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5784</v>
+        <v>0.5615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5784</v>
+        <v>0.5615</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5784</v>
+        <v>0.5615</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5784</v>
+        <v>0.5615</v>
       </c>
       <c r="F16" t="n">
-        <v>123021.1968</v>
+        <v>1842712.6148</v>
       </c>
       <c r="G16" t="n">
-        <v>-20220099.76623023</v>
+        <v>-14695521.0119</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -998,31 +994,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5785</v>
+        <v>0.5598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5785</v>
+        <v>0.5598</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5785</v>
+        <v>0.5598</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5785</v>
+        <v>0.5598</v>
       </c>
       <c r="F17" t="n">
-        <v>871.366</v>
+        <v>2596665.4019</v>
       </c>
       <c r="G17" t="n">
-        <v>-20219228.40023023</v>
+        <v>-17292186.4138</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5615</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1034,22 +1034,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5675</v>
+        <v>0.5651</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5784</v>
+        <v>0.5651</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5784</v>
+        <v>0.5651</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5675</v>
+        <v>0.5651</v>
       </c>
       <c r="F18" t="n">
-        <v>856486.2846</v>
+        <v>1110853.3185</v>
       </c>
       <c r="G18" t="n">
-        <v>-21075714.68483023</v>
+        <v>-16181333.0953</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1058,8 +1058,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1070,22 +1076,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5784</v>
+        <v>0.5645</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5688</v>
+        <v>0.5645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5784</v>
+        <v>0.5645</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5688</v>
+        <v>0.5645</v>
       </c>
       <c r="F19" t="n">
-        <v>1858950.6913</v>
+        <v>1537462.1429</v>
       </c>
       <c r="G19" t="n">
-        <v>-22934665.37613023</v>
+        <v>-17718795.2382</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1094,8 +1100,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1106,22 +1118,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5784</v>
+        <v>0.5632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5632</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5784</v>
+        <v>0.5632</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5632</v>
       </c>
       <c r="F20" t="n">
-        <v>895015.6883</v>
+        <v>2843377.6065</v>
       </c>
       <c r="G20" t="n">
-        <v>-23829681.06443023</v>
+        <v>-20562172.8447</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1142,22 +1154,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5669</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5669</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5669</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5669</v>
       </c>
       <c r="F21" t="n">
-        <v>26451.4515</v>
+        <v>1423506.2984</v>
       </c>
       <c r="G21" t="n">
-        <v>-23829681.06443023</v>
+        <v>-19138666.5463</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1178,22 +1190,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="C22" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="E22" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="F22" t="n">
-        <v>909.7671</v>
+        <v>8761.722900000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-23828771.29733023</v>
+        <v>-19129904.8234</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1214,22 +1226,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5651</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5651</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5651</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5651</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1614404.4864</v>
+        <v>2334631.4525</v>
       </c>
       <c r="G23" t="n">
-        <v>-25443175.78373023</v>
+        <v>-21464536.2759</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1250,22 +1262,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>905.9358</v>
+        <v>1264935.7749</v>
       </c>
       <c r="G24" t="n">
-        <v>-25442269.84793023</v>
+        <v>-21464536.2759</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1286,22 +1298,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5672</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>2017565.6156</v>
+        <v>1897183.2201</v>
       </c>
       <c r="G25" t="n">
-        <v>-27459835.46353023</v>
+        <v>-21464536.2759</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1322,22 +1334,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="C26" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="D26" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="E26" t="n">
-        <v>0.578</v>
+        <v>0.5671</v>
       </c>
       <c r="F26" t="n">
-        <v>907.8514</v>
+        <v>5247.5582</v>
       </c>
       <c r="G26" t="n">
-        <v>-27458927.61213023</v>
+        <v>-21459288.7177</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1358,22 +1370,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>550000</v>
+        <v>1167290.7936</v>
       </c>
       <c r="G27" t="n">
-        <v>-26908927.61213023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1394,22 +1406,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>1361.7771</v>
+        <v>1547262.0483</v>
       </c>
       <c r="G28" t="n">
-        <v>-26910289.38923023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1430,22 +1442,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.578</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>98638.22289999999</v>
+        <v>2888499.7383</v>
       </c>
       <c r="G29" t="n">
-        <v>-26910289.38923023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1466,22 +1478,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5645</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5783</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5783</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5645</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>2557144.2645</v>
+        <v>1275469.456</v>
       </c>
       <c r="G30" t="n">
-        <v>-24353145.12473023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1502,22 +1514,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5783</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5645</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5783</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5645</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>2680.2092</v>
+        <v>8761.722900000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-24355825.33393023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1538,22 +1550,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5783</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5783</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>473100.2534</v>
+        <v>1384336.6103</v>
       </c>
       <c r="G32" t="n">
-        <v>-23882725.08053023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1574,22 +1586,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>2701.8818</v>
+        <v>1064195.0408</v>
       </c>
       <c r="G33" t="n">
-        <v>-23882725.08053023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1610,28 +1622,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>1509883.9775</v>
       </c>
       <c r="G34" t="n">
-        <v>-23882725.08053023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1646,22 +1658,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>880000</v>
+        <v>3009136.4966</v>
       </c>
       <c r="G35" t="n">
-        <v>-24762725.08053023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1682,22 +1694,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5652</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5652</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5652</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5652</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>2902735.2821</v>
+        <v>964359.4191000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-21859989.79843023</v>
+        <v>-22626579.5113</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1718,22 +1730,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5667</v>
+        <v>0.5671</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5667</v>
+        <v>0.5671</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5667</v>
+        <v>0.5671</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5667</v>
+        <v>0.5671</v>
       </c>
       <c r="F37" t="n">
-        <v>1732768.9094</v>
+        <v>907.7261999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-20127220.88903023</v>
+        <v>-22625671.7851</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1754,31 +1766,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5784</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>20000</v>
+        <v>1419074.7226</v>
       </c>
       <c r="G38" t="n">
-        <v>-20107220.88903023</v>
+        <v>-24044746.5077</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5671</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1790,32 +1806,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5649</v>
+        <v>0.5671</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5649</v>
+        <v>0.5673</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5649</v>
+        <v>0.5673</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5649</v>
+        <v>0.5671</v>
       </c>
       <c r="F39" t="n">
-        <v>14756.9573</v>
+        <v>2278120.353269769</v>
       </c>
       <c r="G39" t="n">
-        <v>-20121977.84633023</v>
+        <v>-21766626.15443023</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1826,32 +1850,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5649</v>
+        <v>0.5675</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5649</v>
+        <v>0.5675</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5649</v>
+        <v>0.5675</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5649</v>
+        <v>0.5675</v>
       </c>
       <c r="F40" t="n">
-        <v>359837.4824</v>
+        <v>789854.2574</v>
       </c>
       <c r="G40" t="n">
-        <v>-20121977.84633023</v>
+        <v>-20976771.89703023</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1862,32 +1894,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5649</v>
+        <v>0.5678</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5778</v>
+        <v>0.5678</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5778</v>
+        <v>0.5678</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5649</v>
+        <v>0.5678</v>
       </c>
       <c r="F41" t="n">
-        <v>2905348.7363</v>
+        <v>909.1984</v>
       </c>
       <c r="G41" t="n">
-        <v>-17216629.11003023</v>
+        <v>-20975862.69863023</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.5675</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1898,32 +1938,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5653</v>
+        <v>0.5678</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5653</v>
+        <v>0.5678</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5653</v>
+        <v>0.5678</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5653</v>
+        <v>0.5678</v>
       </c>
       <c r="F42" t="n">
-        <v>1680049.05</v>
+        <v>366320.7976</v>
       </c>
       <c r="G42" t="n">
-        <v>-18896678.16003023</v>
+        <v>-20975862.69863023</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1934,32 +1982,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5745</v>
+        <v>0.5704</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5745</v>
+        <v>0.5784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5745</v>
+        <v>0.5784</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5745</v>
+        <v>0.5704</v>
       </c>
       <c r="F43" t="n">
-        <v>2909902.0809</v>
+        <v>877890.6749</v>
       </c>
       <c r="G43" t="n">
-        <v>-15986776.07913023</v>
+        <v>-20097972.02373023</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1970,22 +2026,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5653</v>
+        <v>0.5785</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5653</v>
+        <v>0.5785</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5653</v>
+        <v>0.5785</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5653</v>
+        <v>0.5785</v>
       </c>
       <c r="F44" t="n">
-        <v>2334944.4776</v>
+        <v>893.4543</v>
       </c>
       <c r="G44" t="n">
-        <v>-18321720.55673023</v>
+        <v>-20097078.56943023</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1994,8 +2050,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2006,32 +2068,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5766</v>
+        <v>0.5784</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5766</v>
+        <v>0.5784</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5766</v>
+        <v>0.5784</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5766</v>
+        <v>0.5784</v>
       </c>
       <c r="F45" t="n">
-        <v>2956933.1163</v>
+        <v>123021.1968</v>
       </c>
       <c r="G45" t="n">
-        <v>-15364787.44043023</v>
+        <v>-20220099.76623023</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2042,32 +2110,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5733</v>
+        <v>0.5785</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5733</v>
+        <v>0.5785</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5733</v>
+        <v>0.5785</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5733</v>
+        <v>0.5785</v>
       </c>
       <c r="F46" t="n">
-        <v>1842087.4053</v>
+        <v>871.366</v>
       </c>
       <c r="G46" t="n">
-        <v>-17206874.84573023</v>
+        <v>-20219228.40023023</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2078,32 +2152,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5759</v>
+        <v>0.5675</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5767</v>
+        <v>0.5784</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5767</v>
+        <v>0.5784</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5759</v>
+        <v>0.5675</v>
       </c>
       <c r="F47" t="n">
-        <v>2463957.1943</v>
+        <v>856486.2846</v>
       </c>
       <c r="G47" t="n">
-        <v>-14742917.65143023</v>
+        <v>-21075714.68483023</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +2194,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5733</v>
+        <v>0.5784</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5736</v>
+        <v>0.5688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5736</v>
+        <v>0.5784</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5733</v>
+        <v>0.5688</v>
       </c>
       <c r="F48" t="n">
-        <v>1759953.8985</v>
+        <v>1858950.6913</v>
       </c>
       <c r="G48" t="n">
-        <v>-16502871.54993023</v>
+        <v>-22934665.37613023</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2138,8 +2218,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2150,22 +2236,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5658</v>
+        <v>0.5784</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5658</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5658</v>
+        <v>0.5784</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5658</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>2454436.1747</v>
+        <v>895015.6883</v>
       </c>
       <c r="G49" t="n">
-        <v>-18957307.72463023</v>
+        <v>-23829681.06443023</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2174,8 +2260,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2186,34 +2278,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5657</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5657</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5657</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5657</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>1007749.4314</v>
+        <v>26451.4515</v>
       </c>
       <c r="G50" t="n">
-        <v>-19965057.15603023</v>
+        <v>-23829681.06443023</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0.9948236642567446</v>
       </c>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2222,31 +2320,35 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5652</v>
+        <v>0.578</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5652</v>
+        <v>0.578</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5652</v>
+        <v>0.578</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5652</v>
+        <v>0.578</v>
       </c>
       <c r="F51" t="n">
-        <v>2218266.0102</v>
+        <v>909.7671</v>
       </c>
       <c r="G51" t="n">
-        <v>-22183323.16623023</v>
+        <v>-23828771.29733023</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2258,32 +2360,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5699</v>
+        <v>0.5651</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5699</v>
+        <v>0.5651</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5699</v>
+        <v>0.5651</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5699</v>
+        <v>0.5651</v>
       </c>
       <c r="F52" t="n">
-        <v>871803.4375</v>
+        <v>1614404.4864</v>
       </c>
       <c r="G52" t="n">
-        <v>-21311519.72873023</v>
+        <v>-25443175.78373023</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2402,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="F53" t="n">
-        <v>2278400.0983</v>
+        <v>905.9358</v>
       </c>
       <c r="G53" t="n">
-        <v>-19033119.63043023</v>
+        <v>-25442269.84793023</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2318,8 +2426,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2330,28 +2444,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5662</v>
+        <v>0.5672</v>
       </c>
       <c r="F54" t="n">
-        <v>846277.1577</v>
+        <v>2017565.6156</v>
       </c>
       <c r="G54" t="n">
-        <v>-19879396.78813023</v>
+        <v>-27459835.46353023</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2366,22 +2480,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5669</v>
+        <v>0.578</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5669</v>
+        <v>0.578</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5669</v>
+        <v>0.578</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5669</v>
+        <v>0.578</v>
       </c>
       <c r="F55" t="n">
-        <v>2524506.401</v>
+        <v>907.8514</v>
       </c>
       <c r="G55" t="n">
-        <v>-17354890.38713023</v>
+        <v>-27458927.61213023</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,22 +2516,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5714</v>
+        <v>0.578</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5714</v>
+        <v>0.5784</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5714</v>
+        <v>0.5784</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5714</v>
+        <v>0.578</v>
       </c>
       <c r="F56" t="n">
-        <v>747107.5368</v>
+        <v>550000</v>
       </c>
       <c r="G56" t="n">
-        <v>-16607782.85033023</v>
+        <v>-26908927.61213023</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2438,22 +2552,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="F57" t="n">
-        <v>1003600.512</v>
+        <v>1361.7771</v>
       </c>
       <c r="G57" t="n">
-        <v>-17611383.36233023</v>
+        <v>-26910289.38923023</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2474,22 +2588,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.57</v>
+        <v>0.578</v>
       </c>
       <c r="C58" t="n">
-        <v>0.57</v>
+        <v>0.578</v>
       </c>
       <c r="D58" t="n">
-        <v>0.57</v>
+        <v>0.578</v>
       </c>
       <c r="E58" t="n">
-        <v>0.57</v>
+        <v>0.578</v>
       </c>
       <c r="F58" t="n">
-        <v>2975676.4318</v>
+        <v>98638.22289999999</v>
       </c>
       <c r="G58" t="n">
-        <v>-14635706.93053023</v>
+        <v>-26910289.38923023</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2510,22 +2624,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5687</v>
+        <v>0.5645</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5687</v>
+        <v>0.5783</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5687</v>
+        <v>0.5783</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5687</v>
+        <v>0.5645</v>
       </c>
       <c r="F59" t="n">
-        <v>1018432.342</v>
+        <v>2557144.2645</v>
       </c>
       <c r="G59" t="n">
-        <v>-15654139.27253023</v>
+        <v>-24353145.12473023</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2546,22 +2660,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5664</v>
+        <v>0.5783</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5664</v>
+        <v>0.5645</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5664</v>
+        <v>0.5783</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5664</v>
+        <v>0.5645</v>
       </c>
       <c r="F60" t="n">
-        <v>2888120.3358</v>
+        <v>2680.2092</v>
       </c>
       <c r="G60" t="n">
-        <v>-18542259.60833023</v>
+        <v>-24355825.33393023</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2582,22 +2696,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5783</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5784</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5784</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5783</v>
       </c>
       <c r="F61" t="n">
-        <v>1158264.7009</v>
+        <v>473100.2534</v>
       </c>
       <c r="G61" t="n">
-        <v>-19700524.30923023</v>
+        <v>-23882725.08053023</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2618,22 +2732,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5722</v>
+        <v>0.5784</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5722</v>
+        <v>0.5784</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5722</v>
+        <v>0.5784</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5722</v>
+        <v>0.5784</v>
       </c>
       <c r="F62" t="n">
-        <v>722950.7648</v>
+        <v>2701.8818</v>
       </c>
       <c r="G62" t="n">
-        <v>-18977573.54443023</v>
+        <v>-23882725.08053023</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2654,22 +2768,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5723</v>
+        <v>0.5784</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5723</v>
+        <v>0.5784</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5723</v>
+        <v>0.5784</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5723</v>
+        <v>0.5784</v>
       </c>
       <c r="F63" t="n">
-        <v>2536406.2073</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>-16441167.33713023</v>
+        <v>-23882725.08053023</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2690,22 +2804,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5714</v>
+        <v>0.5784</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5714</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5714</v>
+        <v>0.5784</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5714</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>2574995.19</v>
+        <v>880000</v>
       </c>
       <c r="G64" t="n">
-        <v>-19016162.52713023</v>
+        <v>-24762725.08053023</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,22 +2840,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5718</v>
+        <v>0.5652</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5718</v>
+        <v>0.5652</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5718</v>
+        <v>0.5652</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5718</v>
+        <v>0.5652</v>
       </c>
       <c r="F65" t="n">
-        <v>1420036.8605</v>
+        <v>2902735.2821</v>
       </c>
       <c r="G65" t="n">
-        <v>-17596125.66663023</v>
+        <v>-21859989.79843023</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2762,22 +2876,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5725</v>
+        <v>0.5667</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5703</v>
+        <v>0.5667</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5736</v>
+        <v>0.5667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5703</v>
+        <v>0.5667</v>
       </c>
       <c r="F66" t="n">
-        <v>3202338.485520781</v>
+        <v>1732768.9094</v>
       </c>
       <c r="G66" t="n">
-        <v>-20798464.15215101</v>
+        <v>-20127220.88903023</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2798,22 +2912,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5736</v>
+        <v>0.5784</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5736</v>
+        <v>0.5784</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5736</v>
+        <v>0.5784</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5736</v>
+        <v>0.5784</v>
       </c>
       <c r="F67" t="n">
-        <v>1799.163179916318</v>
+        <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>-20796664.98897109</v>
+        <v>-20107220.88903023</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2834,22 +2948,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5686</v>
+        <v>0.5649</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5686</v>
+        <v>0.5649</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5686</v>
+        <v>0.5649</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5686</v>
+        <v>0.5649</v>
       </c>
       <c r="F68" t="n">
-        <v>2126641.457</v>
+        <v>14756.9573</v>
       </c>
       <c r="G68" t="n">
-        <v>-22923306.44597109</v>
+        <v>-20121977.84633023</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2870,22 +2984,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5728</v>
+        <v>0.5649</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5728</v>
+        <v>0.5649</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5728</v>
+        <v>0.5649</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5728</v>
+        <v>0.5649</v>
       </c>
       <c r="F69" t="n">
-        <v>2812621.7343</v>
+        <v>359837.4824</v>
       </c>
       <c r="G69" t="n">
-        <v>-20110684.71167109</v>
+        <v>-20121977.84633023</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2906,22 +3020,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5658</v>
+        <v>0.5649</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5658</v>
+        <v>0.5778</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5658</v>
+        <v>0.5778</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5658</v>
+        <v>0.5649</v>
       </c>
       <c r="F70" t="n">
-        <v>1938718.2907</v>
+        <v>2905348.7363</v>
       </c>
       <c r="G70" t="n">
-        <v>-22049403.00237109</v>
+        <v>-17216629.11003023</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2942,22 +3056,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5677</v>
+        <v>0.5653</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5677</v>
+        <v>0.5653</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5677</v>
+        <v>0.5653</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5677</v>
+        <v>0.5653</v>
       </c>
       <c r="F71" t="n">
-        <v>1251116.1806</v>
+        <v>1680049.05</v>
       </c>
       <c r="G71" t="n">
-        <v>-20798286.82177109</v>
+        <v>-18896678.16003023</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2978,22 +3092,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5706</v>
+        <v>0.5745</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5706</v>
+        <v>0.5745</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5706</v>
+        <v>0.5745</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5706</v>
+        <v>0.5745</v>
       </c>
       <c r="F72" t="n">
-        <v>2700530.5371</v>
+        <v>2909902.0809</v>
       </c>
       <c r="G72" t="n">
-        <v>-18097756.28467109</v>
+        <v>-15986776.07913023</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3014,22 +3128,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5662</v>
+        <v>0.5653</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5662</v>
+        <v>0.5653</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5662</v>
+        <v>0.5653</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5662</v>
+        <v>0.5653</v>
       </c>
       <c r="F73" t="n">
-        <v>926058.6034</v>
+        <v>2334944.4776</v>
       </c>
       <c r="G73" t="n">
-        <v>-19023814.88807109</v>
+        <v>-18321720.55673023</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3050,22 +3164,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5719</v>
+        <v>0.5766</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5719</v>
+        <v>0.5766</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5719</v>
+        <v>0.5766</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5719</v>
+        <v>0.5766</v>
       </c>
       <c r="F74" t="n">
-        <v>934313.4972</v>
+        <v>2956933.1163</v>
       </c>
       <c r="G74" t="n">
-        <v>-18089501.39087109</v>
+        <v>-15364787.44043023</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3086,22 +3200,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5699</v>
+        <v>0.5733</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5699</v>
+        <v>0.5733</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5699</v>
+        <v>0.5733</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5699</v>
+        <v>0.5733</v>
       </c>
       <c r="F75" t="n">
-        <v>1248679.0821</v>
+        <v>1842087.4053</v>
       </c>
       <c r="G75" t="n">
-        <v>-19338180.47297109</v>
+        <v>-17206874.84573023</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3122,22 +3236,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5729</v>
+        <v>0.5759</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5729</v>
+        <v>0.5767</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5729</v>
+        <v>0.5767</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5729</v>
+        <v>0.5759</v>
       </c>
       <c r="F76" t="n">
-        <v>2655440.2678</v>
+        <v>2463957.1943</v>
       </c>
       <c r="G76" t="n">
-        <v>-16682740.20517109</v>
+        <v>-14742917.65143023</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3158,22 +3272,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5733</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5736</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5736</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5733</v>
       </c>
       <c r="F77" t="n">
-        <v>2985934.1683</v>
+        <v>1759953.8985</v>
       </c>
       <c r="G77" t="n">
-        <v>-19668674.37347109</v>
+        <v>-16502871.54993023</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3194,22 +3308,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5679</v>
+        <v>0.5658</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5679</v>
+        <v>0.5658</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5679</v>
+        <v>0.5658</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5679</v>
+        <v>0.5658</v>
       </c>
       <c r="F78" t="n">
-        <v>2457630.4218</v>
+        <v>2454436.1747</v>
       </c>
       <c r="G78" t="n">
-        <v>-22126304.79527109</v>
+        <v>-18957307.72463023</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3230,22 +3344,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5683</v>
+        <v>0.5657</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5683</v>
+        <v>0.5657</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5683</v>
+        <v>0.5657</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5683</v>
+        <v>0.5657</v>
       </c>
       <c r="F79" t="n">
-        <v>1908054.0781</v>
+        <v>1007749.4314</v>
       </c>
       <c r="G79" t="n">
-        <v>-20218250.71717109</v>
+        <v>-19965057.15603023</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3266,22 +3380,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5712</v>
+        <v>0.5652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5712</v>
+        <v>0.5652</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5712</v>
+        <v>0.5652</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5712</v>
+        <v>0.5652</v>
       </c>
       <c r="F80" t="n">
-        <v>1147222.1458</v>
+        <v>2218266.0102</v>
       </c>
       <c r="G80" t="n">
-        <v>-19071028.57137109</v>
+        <v>-22183323.16623023</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3302,22 +3416,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.57</v>
+        <v>0.5699</v>
       </c>
       <c r="C81" t="n">
-        <v>0.57</v>
+        <v>0.5699</v>
       </c>
       <c r="D81" t="n">
-        <v>0.57</v>
+        <v>0.5699</v>
       </c>
       <c r="E81" t="n">
-        <v>0.57</v>
+        <v>0.5699</v>
       </c>
       <c r="F81" t="n">
-        <v>2285157.3655</v>
+        <v>871803.4375</v>
       </c>
       <c r="G81" t="n">
-        <v>-21356185.93687109</v>
+        <v>-21311519.72873023</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3338,22 +3452,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5667</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5667</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5667</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5667</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>1292482.8617</v>
+        <v>2278400.0983</v>
       </c>
       <c r="G82" t="n">
-        <v>-22648668.79857109</v>
+        <v>-19033119.63043023</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3374,22 +3488,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5675</v>
+        <v>0.5662</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5675</v>
+        <v>0.5662</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5675</v>
+        <v>0.5662</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5675</v>
+        <v>0.5662</v>
       </c>
       <c r="F83" t="n">
-        <v>1579868.9065</v>
+        <v>846277.1577</v>
       </c>
       <c r="G83" t="n">
-        <v>-21068799.89207109</v>
+        <v>-19879396.78813023</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3410,22 +3524,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5655</v>
+        <v>0.5669</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5546</v>
+        <v>0.5669</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5655</v>
+        <v>0.5669</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5546</v>
+        <v>0.5669</v>
       </c>
       <c r="F84" t="n">
-        <v>2893038</v>
+        <v>2524506.401</v>
       </c>
       <c r="G84" t="n">
-        <v>-23961837.89207109</v>
+        <v>-17354890.38713023</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3446,35 +3560,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5666</v>
+        <v>0.5714</v>
       </c>
       <c r="F85" t="n">
-        <v>1063738.7781</v>
+        <v>747107.5368</v>
       </c>
       <c r="G85" t="n">
-        <v>-22898099.11397109</v>
+        <v>-16607782.85033023</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.5546</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.5546</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3486,22 +3596,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5666</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5666</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5666</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5666</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>2132709.2624</v>
+        <v>1003600.512</v>
       </c>
       <c r="G86" t="n">
-        <v>-22898099.11397109</v>
+        <v>-17611383.36233023</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3510,14 +3620,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.5546</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3528,22 +3632,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="F87" t="n">
-        <v>1640077.6943</v>
+        <v>2975676.4318</v>
       </c>
       <c r="G87" t="n">
-        <v>-21258021.41967109</v>
+        <v>-14635706.93053023</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3552,14 +3656,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.5546</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3668,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5552</v>
+        <v>0.5687</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5552</v>
+        <v>0.5687</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5552</v>
+        <v>0.5687</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5552</v>
+        <v>0.5687</v>
       </c>
       <c r="F88" t="n">
-        <v>2753551.3655</v>
+        <v>1018432.342</v>
       </c>
       <c r="G88" t="n">
-        <v>-24011572.78517109</v>
+        <v>-15654139.27253023</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3606,22 +3704,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5587</v>
+        <v>0.5664</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5587</v>
+        <v>0.5664</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5587</v>
+        <v>0.5664</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5587</v>
+        <v>0.5664</v>
       </c>
       <c r="F89" t="n">
-        <v>1677749.1457</v>
+        <v>2888120.3358</v>
       </c>
       <c r="G89" t="n">
-        <v>-22333823.63947109</v>
+        <v>-18542259.60833023</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3642,35 +3740,31 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5609</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5609</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5609</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5609</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>2210495.3708</v>
+        <v>1158264.7009</v>
       </c>
       <c r="G90" t="n">
-        <v>-20123328.26867109</v>
+        <v>-19700524.30923023</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.5587</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.5587</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
@@ -3682,22 +3776,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5635</v>
+        <v>0.5722</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5635</v>
+        <v>0.5722</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5635</v>
+        <v>0.5722</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5635</v>
+        <v>0.5722</v>
       </c>
       <c r="F91" t="n">
-        <v>1999603.1524</v>
+        <v>722950.7648</v>
       </c>
       <c r="G91" t="n">
-        <v>-18123725.11627109</v>
+        <v>-18977573.54443023</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3706,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.5587</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3724,22 +3812,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5695</v>
+        <v>0.5723</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5695</v>
+        <v>0.5723</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5695</v>
+        <v>0.5723</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5695</v>
+        <v>0.5723</v>
       </c>
       <c r="F92" t="n">
-        <v>2748547.9434</v>
+        <v>2536406.2073</v>
       </c>
       <c r="G92" t="n">
-        <v>-15375177.17287109</v>
+        <v>-16441167.33713023</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3748,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.5587</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3766,35 +3848,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5715</v>
+        <v>0.5714</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5715</v>
+        <v>0.5714</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5715</v>
+        <v>0.5714</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5715</v>
+        <v>0.5714</v>
       </c>
       <c r="F93" t="n">
-        <v>965420.099</v>
+        <v>2574995.19</v>
       </c>
       <c r="G93" t="n">
-        <v>-14409757.07387109</v>
+        <v>-19016162.52713023</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.5695</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.5695</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
@@ -3806,22 +3884,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5651</v>
+        <v>0.5718</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5651</v>
+        <v>0.5718</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5651</v>
+        <v>0.5718</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5651</v>
+        <v>0.5718</v>
       </c>
       <c r="F94" t="n">
-        <v>1652695.8025</v>
+        <v>1420036.8605</v>
       </c>
       <c r="G94" t="n">
-        <v>-16062452.87637109</v>
+        <v>-17596125.66663023</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3830,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.5695</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3848,22 +3920,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5707</v>
+        <v>0.5725</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5707</v>
+        <v>0.5703</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5707</v>
+        <v>0.5736</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5707</v>
+        <v>0.5703</v>
       </c>
       <c r="F95" t="n">
-        <v>2816944.7837</v>
+        <v>3202338.485520781</v>
       </c>
       <c r="G95" t="n">
-        <v>-13245508.09267109</v>
+        <v>-20798464.15215101</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3872,14 +3944,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.5695</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3890,35 +3956,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5672</v>
+        <v>0.5736</v>
       </c>
       <c r="F96" t="n">
-        <v>1993106.656</v>
+        <v>1799.163179916318</v>
       </c>
       <c r="G96" t="n">
-        <v>-15238614.74867109</v>
+        <v>-20796664.98897109</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.5707</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.5707</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3930,40 +3992,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5719</v>
+        <v>0.5686</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5719</v>
+        <v>0.5686</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5719</v>
+        <v>0.5686</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5719</v>
+        <v>0.5686</v>
       </c>
       <c r="F97" t="n">
-        <v>957549.2585999999</v>
+        <v>2126641.457</v>
       </c>
       <c r="G97" t="n">
-        <v>-14281065.49007109</v>
+        <v>-22923306.44597109</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.5707</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3974,22 +4028,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.57</v>
+        <v>0.5728</v>
       </c>
       <c r="C98" t="n">
-        <v>0.57</v>
+        <v>0.5728</v>
       </c>
       <c r="D98" t="n">
-        <v>0.57</v>
+        <v>0.5728</v>
       </c>
       <c r="E98" t="n">
-        <v>0.57</v>
+        <v>0.5728</v>
       </c>
       <c r="F98" t="n">
-        <v>2494395.3338</v>
+        <v>2812621.7343</v>
       </c>
       <c r="G98" t="n">
-        <v>-16775460.82387109</v>
+        <v>-20110684.71167109</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3998,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.5707</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +4064,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5726</v>
+        <v>0.5658</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5726</v>
+        <v>0.5658</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5726</v>
+        <v>0.5658</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5726</v>
+        <v>0.5658</v>
       </c>
       <c r="F99" t="n">
-        <v>946513.145</v>
+        <v>1938718.2907</v>
       </c>
       <c r="G99" t="n">
-        <v>-15828947.6788711</v>
+        <v>-22049403.00237109</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4052,22 +4100,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5697</v>
+        <v>0.5677</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5697</v>
+        <v>0.5677</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5697</v>
+        <v>0.5677</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5697</v>
+        <v>0.5677</v>
       </c>
       <c r="F100" t="n">
-        <v>1172305.3918</v>
+        <v>1251116.1806</v>
       </c>
       <c r="G100" t="n">
-        <v>-17001253.0706711</v>
+        <v>-20798286.82177109</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4088,22 +4136,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5706</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5706</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5706</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5721000000000001</v>
+        <v>0.5706</v>
       </c>
       <c r="F101" t="n">
-        <v>2464979.2174</v>
+        <v>2700530.5371</v>
       </c>
       <c r="G101" t="n">
-        <v>-14536273.8532711</v>
+        <v>-18097756.28467109</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4124,22 +4172,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5662</v>
       </c>
       <c r="F102" t="n">
-        <v>2424226.6329</v>
+        <v>926058.6034</v>
       </c>
       <c r="G102" t="n">
-        <v>-16960500.4861711</v>
+        <v>-19023814.88807109</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4160,35 +4208,31 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5723</v>
+        <v>0.5719</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5723</v>
+        <v>0.5719</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5723</v>
+        <v>0.5719</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5723</v>
+        <v>0.5719</v>
       </c>
       <c r="F103" t="n">
-        <v>1198921.3192</v>
+        <v>934313.4972</v>
       </c>
       <c r="G103" t="n">
-        <v>-15761579.1669711</v>
+        <v>-18089501.39087109</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.5691000000000001</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.5691000000000001</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
@@ -4200,22 +4244,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5717</v>
+        <v>0.5699</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5717</v>
+        <v>0.5699</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5717</v>
+        <v>0.5699</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5717</v>
+        <v>0.5699</v>
       </c>
       <c r="F104" t="n">
-        <v>793304.3125</v>
+        <v>1248679.0821</v>
       </c>
       <c r="G104" t="n">
-        <v>-16554883.4794711</v>
+        <v>-19338180.47297109</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4224,14 +4268,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.5691000000000001</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4242,22 +4280,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5681</v>
+        <v>0.5729</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5681</v>
+        <v>0.5729</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5681</v>
+        <v>0.5729</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5681</v>
+        <v>0.5729</v>
       </c>
       <c r="F105" t="n">
-        <v>2954034.4044</v>
+        <v>2655440.2678</v>
       </c>
       <c r="G105" t="n">
-        <v>-19508917.8838711</v>
+        <v>-16682740.20517109</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4266,14 +4304,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.5691000000000001</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4316,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5734</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5734</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5734</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5734</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>2121.0959</v>
+        <v>2985934.1683</v>
       </c>
       <c r="G106" t="n">
-        <v>-19506796.7879711</v>
+        <v>-19668674.37347109</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4320,22 +4352,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5712</v>
+        <v>0.5679</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5712</v>
+        <v>0.5679</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5712</v>
+        <v>0.5679</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5712</v>
+        <v>0.5679</v>
       </c>
       <c r="F107" t="n">
-        <v>1979798.4357</v>
+        <v>2457630.4218</v>
       </c>
       <c r="G107" t="n">
-        <v>-21486595.2236711</v>
+        <v>-22126304.79527109</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4356,22 +4388,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5673</v>
+        <v>0.5683</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5673</v>
+        <v>0.5683</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5673</v>
+        <v>0.5683</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5673</v>
+        <v>0.5683</v>
       </c>
       <c r="F108" t="n">
-        <v>1477057.2415</v>
+        <v>1908054.0781</v>
       </c>
       <c r="G108" t="n">
-        <v>-22963652.4651711</v>
+        <v>-20218250.71717109</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4392,22 +4424,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5735</v>
+        <v>0.5712</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5685</v>
+        <v>0.5712</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5793</v>
+        <v>0.5712</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5685</v>
+        <v>0.5712</v>
       </c>
       <c r="F109" t="n">
-        <v>28059740.2141993</v>
+        <v>1147222.1458</v>
       </c>
       <c r="G109" t="n">
-        <v>5096087.749028202</v>
+        <v>-19071028.57137109</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4428,22 +4460,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5826</v>
+        <v>0.57</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5826</v>
+        <v>0.57</v>
       </c>
       <c r="E110" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F110" t="n">
-        <v>5609886.6503</v>
+        <v>2285157.3655</v>
       </c>
       <c r="G110" t="n">
-        <v>10705974.3993282</v>
+        <v>-21356185.93687109</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4464,28 +4496,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5826</v>
+        <v>0.5667</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576</v>
+        <v>0.5667</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5826</v>
+        <v>0.5667</v>
       </c>
       <c r="E111" t="n">
-        <v>0.576</v>
+        <v>0.5667</v>
       </c>
       <c r="F111" t="n">
-        <v>1923925.6971</v>
+        <v>1292482.8617</v>
       </c>
       <c r="G111" t="n">
-        <v>8782048.702228202</v>
+        <v>-22648668.79857109</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4500,28 +4532,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.576</v>
+        <v>0.5675</v>
       </c>
       <c r="C112" t="n">
-        <v>0.572</v>
+        <v>0.5675</v>
       </c>
       <c r="D112" t="n">
-        <v>0.576</v>
+        <v>0.5675</v>
       </c>
       <c r="E112" t="n">
-        <v>0.572</v>
+        <v>0.5675</v>
       </c>
       <c r="F112" t="n">
-        <v>4297450</v>
+        <v>1579868.9065</v>
       </c>
       <c r="G112" t="n">
-        <v>4484598.702228202</v>
+        <v>-21068799.89207109</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4536,22 +4568,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.572</v>
+        <v>0.5655</v>
       </c>
       <c r="C113" t="n">
-        <v>0.57</v>
+        <v>0.5546</v>
       </c>
       <c r="D113" t="n">
-        <v>0.572</v>
+        <v>0.5655</v>
       </c>
       <c r="E113" t="n">
-        <v>0.57</v>
+        <v>0.5546</v>
       </c>
       <c r="F113" t="n">
-        <v>1434026</v>
+        <v>2893038</v>
       </c>
       <c r="G113" t="n">
-        <v>3050572.702228202</v>
+        <v>-23961837.89207109</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4572,22 +4604,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5777</v>
+        <v>0.5666</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5777</v>
+        <v>0.5666</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5777</v>
+        <v>0.5666</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5777</v>
+        <v>0.5666</v>
       </c>
       <c r="F114" t="n">
-        <v>2593128.0519</v>
+        <v>1063738.7781</v>
       </c>
       <c r="G114" t="n">
-        <v>5643700.754128201</v>
+        <v>-22898099.11397109</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4608,22 +4640,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.569</v>
+        <v>0.5666</v>
       </c>
       <c r="C115" t="n">
-        <v>0.569</v>
+        <v>0.5666</v>
       </c>
       <c r="D115" t="n">
-        <v>0.569</v>
+        <v>0.5666</v>
       </c>
       <c r="E115" t="n">
-        <v>0.569</v>
+        <v>0.5666</v>
       </c>
       <c r="F115" t="n">
-        <v>708180.5129</v>
+        <v>2132709.2624</v>
       </c>
       <c r="G115" t="n">
-        <v>4935520.2412282</v>
+        <v>-22898099.11397109</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4644,22 +4676,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.569</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.569</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.569</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.569</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>5247.5582</v>
+        <v>1640077.6943</v>
       </c>
       <c r="G116" t="n">
-        <v>4935520.2412282</v>
+        <v>-21258021.41967109</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4680,22 +4712,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5798</v>
+        <v>0.5552</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5798</v>
+        <v>0.5552</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5798</v>
+        <v>0.5552</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5798</v>
+        <v>0.5552</v>
       </c>
       <c r="F117" t="n">
-        <v>1983865.6752</v>
+        <v>2753551.3655</v>
       </c>
       <c r="G117" t="n">
-        <v>6919385.916428201</v>
+        <v>-24011572.78517109</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4716,22 +4748,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.571</v>
+        <v>0.5587</v>
       </c>
       <c r="C118" t="n">
-        <v>0.571</v>
+        <v>0.5587</v>
       </c>
       <c r="D118" t="n">
-        <v>0.571</v>
+        <v>0.5587</v>
       </c>
       <c r="E118" t="n">
-        <v>0.571</v>
+        <v>0.5587</v>
       </c>
       <c r="F118" t="n">
-        <v>1034225.6084</v>
+        <v>1677749.1457</v>
       </c>
       <c r="G118" t="n">
-        <v>5885160.308028201</v>
+        <v>-22333823.63947109</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4752,22 +4784,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5609</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5609</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5609</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5609</v>
       </c>
       <c r="F119" t="n">
-        <v>2656150.7089</v>
+        <v>2210495.3708</v>
       </c>
       <c r="G119" t="n">
-        <v>8541311.0169282</v>
+        <v>-20123328.26867109</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4788,22 +4820,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5774</v>
+        <v>0.5635</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5774</v>
+        <v>0.5635</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5774</v>
+        <v>0.5635</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5774</v>
+        <v>0.5635</v>
       </c>
       <c r="F120" t="n">
-        <v>620378.0431</v>
+        <v>1999603.1524</v>
       </c>
       <c r="G120" t="n">
-        <v>7920932.973828199</v>
+        <v>-18123725.11627109</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4824,22 +4856,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5793</v>
+        <v>0.5695</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5793</v>
+        <v>0.5695</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5793</v>
+        <v>0.5695</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5793</v>
+        <v>0.5695</v>
       </c>
       <c r="F121" t="n">
-        <v>2897191.0652</v>
+        <v>2748547.9434</v>
       </c>
       <c r="G121" t="n">
-        <v>10818124.0390282</v>
+        <v>-15375177.17287109</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4860,28 +4892,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5768</v>
+        <v>0.5715</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5768</v>
+        <v>0.5715</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5768</v>
+        <v>0.5715</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5768</v>
+        <v>0.5715</v>
       </c>
       <c r="F122" t="n">
-        <v>1825849.3041</v>
+        <v>965420.099</v>
       </c>
       <c r="G122" t="n">
-        <v>8992274.7349282</v>
+        <v>-14409757.07387109</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4896,28 +4928,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5735</v>
+        <v>0.5651</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5735</v>
+        <v>0.5651</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5735</v>
+        <v>0.5651</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5735</v>
+        <v>0.5651</v>
       </c>
       <c r="F123" t="n">
-        <v>2464454.6972</v>
+        <v>1652695.8025</v>
       </c>
       <c r="G123" t="n">
-        <v>6527820.0377282</v>
+        <v>-16062452.87637109</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4932,28 +4964,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5753</v>
+        <v>0.5707</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5753</v>
+        <v>0.5707</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5753</v>
+        <v>0.5707</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5753</v>
+        <v>0.5707</v>
       </c>
       <c r="F124" t="n">
-        <v>1545170.2742</v>
+        <v>2816944.7837</v>
       </c>
       <c r="G124" t="n">
-        <v>8072990.3119282</v>
+        <v>-13245508.09267109</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4968,28 +5000,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5731000000000001</v>
+        <v>0.5672</v>
       </c>
       <c r="F125" t="n">
-        <v>2701289.5991</v>
+        <v>1993106.656</v>
       </c>
       <c r="G125" t="n">
-        <v>5371700.712828199</v>
+        <v>-15238614.74867109</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4999,6 +5031,1050 @@
       </c>
       <c r="N125" t="inlineStr"/>
     </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="F126" t="n">
+        <v>957549.2585999999</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-14281065.49007109</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2494395.3338</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-16775460.82387109</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="F128" t="n">
+        <v>946513.145</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-15828947.6788711</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1172305.3918</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-17001253.0706711</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5721000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2464979.2174</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-14536273.8532711</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2424226.6329</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-16960500.4861711</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5723</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5723</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5723</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5723</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1198921.3192</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-15761579.1669711</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="F133" t="n">
+        <v>793304.3125</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-16554883.4794711</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5681</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5681</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5681</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5681</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2954034.4044</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-19508917.8838711</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5734</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2121.0959</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-19506796.7879711</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5712</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1979798.4357</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-21486595.2236711</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1477057.2415</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-22963652.4651711</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5793</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28059740.2141993</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5096087.749028202</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5826</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5826</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5609886.6503</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10705974.3993282</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.5826</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5826</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1923925.6971</v>
+      </c>
+      <c r="G140" t="n">
+        <v>8782048.702228202</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4297450</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4484598.702228202</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1434026</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3050572.702228202</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.5777</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2593128.0519</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5643700.754128201</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F144" t="n">
+        <v>708180.5129</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4935520.2412282</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5247.5582</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4935520.2412282</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.5798</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.5798</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5798</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.5798</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1983865.6752</v>
+      </c>
+      <c r="G146" t="n">
+        <v>6919385.916428201</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1034225.6084</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5885160.308028201</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2656150.7089</v>
+      </c>
+      <c r="G148" t="n">
+        <v>8541311.0169282</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.5774</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5774</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.5774</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.5774</v>
+      </c>
+      <c r="F149" t="n">
+        <v>620378.0431</v>
+      </c>
+      <c r="G149" t="n">
+        <v>7920932.973828199</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.5793</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5793</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.5793</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.5793</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2897191.0652</v>
+      </c>
+      <c r="G150" t="n">
+        <v>10818124.0390282</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.5768</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5768</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.5768</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.5768</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1825849.3041</v>
+      </c>
+      <c r="G151" t="n">
+        <v>8992274.7349282</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2464454.6972</v>
+      </c>
+      <c r="G152" t="n">
+        <v>6527820.0377282</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.5753</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.5753</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.5753</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.5753</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1545170.2742</v>
+      </c>
+      <c r="G153" t="n">
+        <v>8072990.3119282</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2701289.5991</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5371700.712828199</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-26 BackTest APIS.xlsx
+++ b/BackTest/2020-01-26 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,22 +616,15 @@
         <v>-23486267.0289</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,872 +651,808 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2689766.5841</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-19296304.1058</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1775573.3323</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-21071877.4381</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2547365.5652</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-18524511.8729</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5588</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5588</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5588</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5588</v>
+      </c>
+      <c r="F12" t="n">
+        <v>726296.8811</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-19250808.754</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5611</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2569697.6688</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-16681111.0852</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1047201.3535</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-15633909.7317</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5607</v>
+      </c>
+      <c r="F15" t="n">
+        <v>904323.895</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-16538233.6267</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1842712.6148</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-14695521.0119</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5598</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5598</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5598</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5598</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2596665.4019</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-17292186.4138</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1110853.3185</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-16181333.0953</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5598</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1537462.1429</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-17718795.2382</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.5651</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2689766.5841</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-19296304.1058</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0.5618</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0.5615</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1775573.3323</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-21071877.4381</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2547365.5652</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-18524511.8729</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5588</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5588</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5588</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5588</v>
-      </c>
-      <c r="F12" t="n">
-        <v>726296.8811</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-19250808.754</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5611</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2569697.6688</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-16681111.0852</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1047201.3535</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-15633909.7317</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5607</v>
-      </c>
-      <c r="F15" t="n">
-        <v>904323.895</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-16538233.6267</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1842712.6148</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-14695521.0119</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5598</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5598</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5598</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5598</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2596665.4019</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-17292186.4138</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1110853.3185</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-16181333.0953</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2843377.6065</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-20562172.8447</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1423506.2984</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-19138666.5463</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8761.722900000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-19129904.8234</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2334631.4525</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-21464536.2759</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1264935.7749</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-21464536.2759</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1897183.2201</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-21464536.2759</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5247.5582</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-21459288.7177</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1167290.7936</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-22626579.5113</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1547262.0483</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-22626579.5113</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2888499.7383</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-22626579.5113</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1275469.456</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-22626579.5113</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5645</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1537462.1429</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-17718795.2382</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8761.722900000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-22626579.5113</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2843377.6065</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-20562172.8447</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5669</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1423506.2984</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-19138666.5463</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8761.722900000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-19129904.8234</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2334631.4525</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-21464536.2759</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1264935.7749</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-21464536.2759</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1897183.2201</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-21464536.2759</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5247.5582</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-21459288.7177</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1167290.7936</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-22626579.5113</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1547262.0483</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-22626579.5113</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2888499.7383</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-22626579.5113</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1275469.456</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-22626579.5113</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F31" t="n">
-        <v>8761.722900000001</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-22626579.5113</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1570,16 +1479,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1606,16 +1512,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,18 +1543,19 @@
         <v>-22626579.5113</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1676,18 +1580,23 @@
         <v>-22626579.5113</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1714,16 +1623,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1748,18 +1660,19 @@
         <v>-22625671.7851</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1784,22 +1697,23 @@
         <v>-24044746.5077</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.5671</v>
       </c>
       <c r="J38" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1824,26 +1738,23 @@
         <v>-21766626.15443023</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J39" t="n">
         <v>0.5669999999999999</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1868,26 +1779,19 @@
         <v>-20976771.89703023</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.5673</v>
       </c>
       <c r="J40" t="n">
         <v>0.5673</v>
       </c>
-      <c r="K40" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1912,26 +1816,23 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.5675</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>0.5673</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1956,26 +1857,23 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.5678</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5678</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>0.5673</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2002,24 +1900,13 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5678</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2044,24 +1931,19 @@
         <v>-20097078.56943023</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>0.5784</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5784</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2086,24 +1968,21 @@
         <v>-20220099.76623023</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.5784</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2128,24 +2007,21 @@
         <v>-20219228.40023023</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.5784</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2170,24 +2046,15 @@
         <v>-21075714.68483023</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2212,24 +2079,15 @@
         <v>-22934665.37613023</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2254,24 +2112,15 @@
         <v>-23829681.06443023</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2298,22 +2147,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9948236642567446</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2338,22 +2178,15 @@
         <v>-23828771.29733023</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2378,24 +2211,15 @@
         <v>-25443175.78373023</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2420,24 +2244,15 @@
         <v>-25442269.84793023</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2462,18 +2277,15 @@
         <v>-27459835.46353023</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2500,16 +2312,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2534,18 +2343,15 @@
         <v>-26908927.61213023</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2570,18 +2376,15 @@
         <v>-26910289.38923023</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2606,18 +2409,15 @@
         <v>-26910289.38923023</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2642,18 +2442,15 @@
         <v>-24353145.12473023</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2678,18 +2475,15 @@
         <v>-24355825.33393023</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2714,18 +2508,15 @@
         <v>-23882725.08053023</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2750,18 +2541,15 @@
         <v>-23882725.08053023</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2786,18 +2574,15 @@
         <v>-23882725.08053023</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2822,18 +2607,15 @@
         <v>-24762725.08053023</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2860,16 +2642,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2896,16 +2675,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2932,16 +2708,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2968,16 +2741,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3004,16 +2774,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3040,16 +2807,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3076,16 +2840,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3112,16 +2873,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3148,16 +2906,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3184,16 +2939,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3220,16 +2972,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3256,16 +3005,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3292,16 +3038,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3328,16 +3071,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3364,16 +3104,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3400,16 +3137,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3436,16 +3170,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3472,16 +3203,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3508,16 +3236,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3544,16 +3269,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3580,16 +3302,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3616,16 +3335,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3652,16 +3368,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3688,16 +3401,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3724,16 +3434,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3760,16 +3467,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3796,16 +3500,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3832,16 +3533,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3868,16 +3566,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3904,16 +3599,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3940,16 +3632,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3976,16 +3665,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4012,16 +3698,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4048,16 +3731,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4084,16 +3764,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4120,16 +3797,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4156,16 +3830,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4192,16 +3863,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4228,16 +3896,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4264,16 +3929,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4300,16 +3962,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4336,16 +3995,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4372,16 +4028,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4408,16 +4061,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4444,16 +4094,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4480,16 +4127,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4516,16 +4160,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4552,16 +4193,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4588,16 +4226,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4624,16 +4259,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4660,16 +4292,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4696,16 +4325,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4732,16 +4358,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4768,16 +4391,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4804,16 +4424,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4840,16 +4457,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4876,16 +4490,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4912,16 +4523,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4948,16 +4556,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4984,16 +4589,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5020,16 +4622,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5056,16 +4655,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5092,16 +4688,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5128,16 +4721,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5164,16 +4754,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5200,16 +4787,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5236,16 +4820,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5272,16 +4853,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5308,16 +4886,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5344,16 +4919,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5380,16 +4952,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5416,16 +4985,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5452,16 +5018,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5488,16 +5051,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5524,16 +5084,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5560,16 +5117,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5596,16 +5150,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5632,16 +5183,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5668,16 +5216,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5704,16 +5249,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5740,16 +5282,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5776,16 +5315,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5812,16 +5348,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5848,16 +5381,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5884,16 +5414,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5920,16 +5447,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5956,16 +5480,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5992,16 +5513,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6028,16 +5546,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6064,18 +5579,15 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest APIS.xlsx
+++ b/BackTest/2020-01-26 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>-17292186.4138</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>-16181333.0953</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.5598</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,11 @@
         <v>-17718795.2382</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.5651</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1362,14 +1342,10 @@
         <v>-22626579.5113</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5669999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1402,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1441,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1543,14 +1507,10 @@
         <v>-22626579.5113</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5669999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1580,19 +1540,11 @@
         <v>-22626579.5113</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1660,14 +1606,10 @@
         <v>-22625671.7851</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5669999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1697,19 +1639,11 @@
         <v>-24044746.5077</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.5671</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1738,19 +1672,11 @@
         <v>-21766626.15443023</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1779,14 +1705,10 @@
         <v>-20976771.89703023</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.5673</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5673</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1816,19 +1738,15 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0.5675</v>
       </c>
       <c r="J41" t="n">
-        <v>0.5673</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.5675</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1857,13 +1775,13 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0.5678</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5673</v>
+        <v>0.5675</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1900,9 +1818,17 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5675</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1931,7 +1857,7 @@
         <v>-20097078.56943023</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0.5784</v>
@@ -1968,7 +1894,7 @@
         <v>-20220099.76623023</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
@@ -2007,7 +1933,7 @@
         <v>-20219228.40023023</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2046,7 +1972,7 @@
         <v>-21075714.68483023</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2081,9 +2007,15 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0.5784</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2114,9 +2046,15 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0.5688</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2149,7 +2087,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2178,11 +2120,17 @@
         <v>-23828771.29733023</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2211,11 +2159,15 @@
         <v>-25443175.78373023</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2244,11 +2196,17 @@
         <v>-25442269.84793023</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5651</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2277,11 +2235,15 @@
         <v>-27459835.46353023</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2314,7 +2276,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2343,11 +2309,15 @@
         <v>-26908927.61213023</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2376,11 +2346,15 @@
         <v>-26910289.38923023</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2409,11 +2383,15 @@
         <v>-26910289.38923023</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2442,11 +2420,15 @@
         <v>-24353145.12473023</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2475,11 +2457,17 @@
         <v>-24355825.33393023</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.5783</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2508,11 +2496,15 @@
         <v>-23882725.08053023</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2541,11 +2533,15 @@
         <v>-23882725.08053023</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2574,11 +2570,15 @@
         <v>-23882725.08053023</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2607,15 @@
         <v>-24762725.08053023</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2644,7 +2648,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2677,7 +2685,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2710,7 +2722,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2743,7 +2759,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2776,7 +2796,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2809,7 +2833,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2842,7 +2870,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2875,7 +2907,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +2944,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2941,7 +2981,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2974,7 +3018,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3007,7 +3055,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3040,7 +3092,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3073,7 +3129,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3106,7 +3166,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3139,7 +3203,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3172,7 +3240,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3205,7 +3277,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3238,7 +3314,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3271,7 +3351,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3304,7 +3388,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3337,7 +3425,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3370,7 +3462,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3403,7 +3499,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3436,7 +3536,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3469,7 +3573,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3502,7 +3610,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3535,7 +3647,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3568,7 +3684,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3601,7 +3721,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3634,7 +3758,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3667,7 +3795,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3700,7 +3832,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3733,7 +3869,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3766,7 +3906,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3799,7 +3943,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3832,7 +3980,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3865,7 +4017,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3898,7 +4054,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3931,7 +4091,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3964,7 +4128,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3997,7 +4165,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4030,7 +4202,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4239,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4096,7 +4276,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4129,7 +4313,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4162,7 +4350,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4195,7 +4387,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4228,7 +4424,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4261,7 +4461,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4294,7 +4498,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4327,7 +4535,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4360,7 +4572,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4393,7 +4609,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4426,7 +4646,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4459,7 +4683,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4492,7 +4720,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4525,7 +4757,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4558,7 +4794,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4591,7 +4831,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4868,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4657,7 +4905,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4690,7 +4942,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4723,7 +4979,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4756,7 +5016,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4789,7 +5053,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4822,7 +5090,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4855,7 +5127,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4888,7 +5164,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4921,7 +5201,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4954,7 +5238,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4987,7 +5275,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5020,7 +5312,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5053,7 +5349,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5086,7 +5386,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5119,7 +5423,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5152,7 +5460,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5185,7 +5497,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5534,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5251,7 +5571,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5284,7 +5608,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5317,7 +5645,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5350,7 +5682,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5383,7 +5719,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5416,7 +5756,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5445,14 +5789,16 @@
         <v>10818124.0390282</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -5478,7 +5824,7 @@
         <v>8992274.7349282</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5511,7 +5857,7 @@
         <v>6527820.0377282</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5544,7 +5890,7 @@
         <v>8072990.3119282</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5577,7 +5923,7 @@
         <v>5371700.712828199</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5588,6 +5934,6 @@
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest APIS.xlsx
+++ b/BackTest/2020-01-26 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1738,14 +1738,10 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1775,97 +1771,87 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5784</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5784</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="F43" t="n">
+        <v>877890.6749</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-20097972.02373023</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0.5678</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="K42" t="inlineStr">
+      <c r="J43" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5785</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5785</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5785</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5785</v>
+      </c>
+      <c r="F44" t="n">
+        <v>893.4543</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-20097078.56943023</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5784</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5784</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5704</v>
-      </c>
-      <c r="F43" t="n">
-        <v>877890.6749</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-20097972.02373023</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.5678</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5785</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5785</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5785</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5785</v>
-      </c>
-      <c r="F44" t="n">
-        <v>893.4543</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-20097078.56943023</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.5784</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5784</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1898,7 +1884,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>0.5784</v>
+        <v>0.5678</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1936,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.5784</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1985,11 @@
         <v>-22934665.37613023</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.5784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +2018,11 @@
         <v>-23829681.06443023</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.5688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2087,11 +2055,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2120,17 +2084,11 @@
         <v>-23828771.29733023</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.5669999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2163,11 +2121,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2196,17 +2150,11 @@
         <v>-25442269.84793023</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.5651</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2239,11 +2187,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2276,11 +2220,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2313,11 +2253,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2286,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2319,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2424,11 +2352,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2457,17 +2381,11 @@
         <v>-24355825.33393023</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.5783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2500,11 +2418,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2537,11 +2451,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2574,11 +2484,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2611,11 +2517,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2648,11 +2550,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2685,11 +2583,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2722,11 +2616,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2759,11 +2649,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2796,11 +2682,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2833,11 +2715,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2870,11 +2748,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2907,11 +2781,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +2814,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +2847,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3018,11 +2880,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3055,11 +2913,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3092,11 +2946,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +2979,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3166,11 +3012,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +3045,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3240,11 +3078,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3277,11 +3111,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3144,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3177,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3210,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3425,11 +3243,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3276,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3499,11 +3309,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3342,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3569,15 +3371,11 @@
         <v>-19700524.30923023</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3606,15 +3404,11 @@
         <v>-18977573.54443023</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3647,11 +3441,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3684,11 +3474,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3507,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3540,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3795,11 +3573,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3832,11 +3606,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3869,11 +3639,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3906,11 +3672,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3943,11 +3705,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3980,11 +3738,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4017,11 +3771,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4054,11 +3804,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4091,11 +3837,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4128,11 +3870,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +3903,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4202,11 +3936,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4239,11 +3969,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4276,11 +4002,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4313,11 +4035,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4350,11 +4068,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4387,11 +4101,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4424,11 +4134,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4457,15 +4163,15 @@
         <v>-22898099.11397109</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.5546</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.5546</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4497,10 +4203,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.5546</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4534,10 +4242,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.5546</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4572,11 +4282,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4605,15 +4311,15 @@
         <v>-22333823.63947109</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.5552</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5552</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4645,10 +4351,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.5552</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4679,13 +4387,17 @@
         <v>-18123725.11627109</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.5609</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.5552</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4720,11 +4432,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4465,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4794,11 +4498,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4831,11 +4531,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4868,11 +4564,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +4597,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +4630,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +4663,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5016,11 +4696,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5053,11 +4729,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5090,11 +4762,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5127,11 +4795,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5164,11 +4828,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5201,11 +4861,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5238,11 +4894,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5275,11 +4927,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5312,11 +4960,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +4993,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5386,11 +5026,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5423,11 +5059,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5460,11 +5092,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5497,11 +5125,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5534,11 +5158,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5571,11 +5191,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5608,11 +5224,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5645,11 +5257,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5682,11 +5290,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5719,11 +5323,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5756,11 +5356,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5789,16 +5385,14 @@
         <v>10818124.0390282</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
       <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -5824,7 +5418,7 @@
         <v>8992274.7349282</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5857,7 +5451,7 @@
         <v>6527820.0377282</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5890,7 +5484,7 @@
         <v>8072990.3119282</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5923,7 +5517,7 @@
         <v>5371700.712828199</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5934,6 +5528,6 @@
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest APIS.xlsx
+++ b/BackTest/2020-01-26 BackTest APIS.xlsx
@@ -1606,10 +1606,14 @@
         <v>-22625671.7851</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1639,11 +1643,19 @@
         <v>-24044746.5077</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1684,19 @@
         <v>-21766626.15443023</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,10 +1725,14 @@
         <v>-20976771.89703023</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5673</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1738,11 +1762,19 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5675</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1803,19 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5678</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1841,9 +1881,11 @@
         <v>-20097078.56943023</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5784</v>
+      </c>
       <c r="J44" t="n">
         <v>0.5678</v>
       </c>
@@ -1880,7 +1922,7 @@
         <v>-20220099.76623023</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
@@ -1919,7 +1961,7 @@
         <v>-20219228.40023023</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1952,7 +1994,7 @@
         <v>-21075714.68483023</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1985,7 +2027,7 @@
         <v>-22934665.37613023</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2018,7 +2060,7 @@
         <v>-23829681.06443023</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2051,7 +2093,7 @@
         <v>-23829681.06443023</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,10 +2126,14 @@
         <v>-23828771.29733023</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2117,11 +2163,17 @@
         <v>-25443175.78373023</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2202,19 @@
         <v>-25442269.84793023</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5651</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2216,10 +2276,14 @@
         <v>-27458927.61213023</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5672</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2252,8 +2316,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2352,17 @@
         <v>-26910289.38923023</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -3371,7 +3447,7 @@
         <v>-19700524.30923023</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3404,7 +3480,7 @@
         <v>-18977573.54443023</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4163,14 +4239,10 @@
         <v>-22898099.11397109</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.5546</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.5546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4203,14 +4275,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.5546</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4242,14 +4308,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.5546</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4311,14 +4371,10 @@
         <v>-22333823.63947109</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.5552</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.5552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4351,14 +4407,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.5552</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4387,19 +4437,11 @@
         <v>-18123725.11627109</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.5609</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.5552</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5055,7 +5097,7 @@
         <v>8782048.702228202</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5088,7 +5130,7 @@
         <v>4484598.702228202</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5385,7 +5427,7 @@
         <v>10818124.0390282</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5418,7 +5460,7 @@
         <v>8992274.7349282</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5451,7 +5493,7 @@
         <v>6527820.0377282</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5484,7 +5526,7 @@
         <v>8072990.3119282</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5517,7 +5559,7 @@
         <v>5371700.712828199</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
